--- a/Code/Results/Cases/Case_3_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037548903237228</v>
+        <v>1.081981583213166</v>
       </c>
       <c r="D2">
-        <v>1.054726135261723</v>
+        <v>1.082531993875297</v>
       </c>
       <c r="E2">
-        <v>1.047570993377846</v>
+        <v>1.084519647350569</v>
       </c>
       <c r="F2">
-        <v>1.060781971657991</v>
+        <v>1.094501719293237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066344341561632</v>
+        <v>1.057984687742426</v>
       </c>
       <c r="J2">
-        <v>1.058661736574311</v>
+        <v>1.086853476581865</v>
       </c>
       <c r="K2">
-        <v>1.065472276250208</v>
+        <v>1.085199966538849</v>
       </c>
       <c r="L2">
-        <v>1.05840510503144</v>
+        <v>1.087182456347876</v>
       </c>
       <c r="M2">
-        <v>1.071454808592454</v>
+        <v>1.097138901975255</v>
       </c>
       <c r="N2">
-        <v>1.060165157670445</v>
+        <v>1.088396933182447</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.046516169288722</v>
+        <v>1.083698833586853</v>
       </c>
       <c r="D3">
-        <v>1.061898262993607</v>
+        <v>1.083902060528331</v>
       </c>
       <c r="E3">
-        <v>1.055366803206782</v>
+        <v>1.086032015474934</v>
       </c>
       <c r="F3">
-        <v>1.068516631466987</v>
+        <v>1.09600629205567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069701323311727</v>
+        <v>1.058499236461373</v>
       </c>
       <c r="J3">
-        <v>1.065814358836915</v>
+        <v>1.088229113723273</v>
       </c>
       <c r="K3">
-        <v>1.071795972554136</v>
+        <v>1.086387350657828</v>
       </c>
       <c r="L3">
-        <v>1.065337074134001</v>
+        <v>1.088512176327696</v>
       </c>
       <c r="M3">
-        <v>1.078341924602288</v>
+        <v>1.098462717987029</v>
       </c>
       <c r="N3">
-        <v>1.067327937477079</v>
+        <v>1.089774523886384</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.052120951667384</v>
+        <v>1.084807553590431</v>
       </c>
       <c r="D4">
-        <v>1.066383019305256</v>
+        <v>1.084786300694272</v>
       </c>
       <c r="E4">
-        <v>1.060240987958857</v>
+        <v>1.087008123024208</v>
       </c>
       <c r="F4">
-        <v>1.073355424827249</v>
+        <v>1.096977649583864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071784430987444</v>
+        <v>1.058829573980172</v>
       </c>
       <c r="J4">
-        <v>1.070279246996237</v>
+        <v>1.089116411017484</v>
       </c>
       <c r="K4">
-        <v>1.075741211043791</v>
+        <v>1.087152843556756</v>
       </c>
       <c r="L4">
-        <v>1.06966291129152</v>
+        <v>1.089369587268702</v>
       </c>
       <c r="M4">
-        <v>1.082642345390376</v>
+        <v>1.099316596634084</v>
       </c>
       <c r="N4">
-        <v>1.071799166289716</v>
+        <v>1.090663081244527</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.054432952912802</v>
+        <v>1.085273084585707</v>
       </c>
       <c r="D5">
-        <v>1.068233356065819</v>
+        <v>1.085157497810774</v>
       </c>
       <c r="E5">
-        <v>1.062251900097434</v>
+        <v>1.087417892264753</v>
       </c>
       <c r="F5">
-        <v>1.075352390240633</v>
+        <v>1.097385491655685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072640033652616</v>
+        <v>1.058967827509609</v>
       </c>
       <c r="J5">
-        <v>1.072119602411805</v>
+        <v>1.089488763336931</v>
       </c>
       <c r="K5">
-        <v>1.077366816378053</v>
+        <v>1.08747398963343</v>
       </c>
       <c r="L5">
-        <v>1.071445626675174</v>
+        <v>1.089729333389368</v>
       </c>
       <c r="M5">
-        <v>1.084415183465618</v>
+        <v>1.099674926118227</v>
       </c>
       <c r="N5">
-        <v>1.073642135221067</v>
+        <v>1.091035962346978</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.054818636811355</v>
+        <v>1.085351215953054</v>
       </c>
       <c r="D6">
-        <v>1.068542043210361</v>
+        <v>1.08521979219776</v>
       </c>
       <c r="E6">
-        <v>1.062587371042478</v>
+        <v>1.08748666025954</v>
       </c>
       <c r="F6">
-        <v>1.075685572264139</v>
+        <v>1.097453940140581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07278254480513</v>
+        <v>1.058991004635804</v>
       </c>
       <c r="J6">
-        <v>1.072426520996162</v>
+        <v>1.08955124409314</v>
       </c>
       <c r="K6">
-        <v>1.077637887113734</v>
+        <v>1.087527872609877</v>
       </c>
       <c r="L6">
-        <v>1.071742913121542</v>
+        <v>1.089789695044728</v>
       </c>
       <c r="M6">
-        <v>1.084710857321655</v>
+        <v>1.099735053904138</v>
       </c>
       <c r="N6">
-        <v>1.073949489665018</v>
+        <v>1.091098531833026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.052152014783491</v>
+        <v>1.08481377627938</v>
       </c>
       <c r="D7">
-        <v>1.066407878445846</v>
+        <v>1.084791262746999</v>
       </c>
       <c r="E7">
-        <v>1.060268004750766</v>
+        <v>1.087013600669566</v>
       </c>
       <c r="F7">
-        <v>1.073382251685571</v>
+        <v>1.096983101205163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071795941223621</v>
+        <v>1.058831423762022</v>
       </c>
       <c r="J7">
-        <v>1.070303979034268</v>
+        <v>1.089121389015583</v>
       </c>
       <c r="K7">
-        <v>1.075763059365086</v>
+        <v>1.087157137335391</v>
       </c>
       <c r="L7">
-        <v>1.069686870023527</v>
+        <v>1.089374396987245</v>
       </c>
       <c r="M7">
-        <v>1.082666169036764</v>
+        <v>1.099321387155737</v>
       </c>
       <c r="N7">
-        <v>1.071823933450079</v>
+        <v>1.090668066311954</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.040622301227958</v>
+        <v>1.082562452383676</v>
       </c>
       <c r="D8">
-        <v>1.057183776114013</v>
+        <v>1.082995493081082</v>
       </c>
       <c r="E8">
-        <v>1.050242492131596</v>
+        <v>1.085031282717107</v>
       </c>
       <c r="F8">
-        <v>1.063431896264901</v>
+        <v>1.09501065888311</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067498050258104</v>
+        <v>1.058159124982624</v>
       </c>
       <c r="J8">
-        <v>1.061114353828398</v>
+        <v>1.087318972309716</v>
       </c>
       <c r="K8">
-        <v>1.067641106234133</v>
+        <v>1.085601838695971</v>
       </c>
       <c r="L8">
-        <v>1.060782332056134</v>
+        <v>1.087632470299056</v>
       </c>
       <c r="M8">
-        <v>1.073816095106557</v>
+        <v>1.097586860665499</v>
       </c>
       <c r="N8">
-        <v>1.062621257922352</v>
+        <v>1.088863089967625</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.018635413223287</v>
+        <v>1.078575936704114</v>
       </c>
       <c r="D9">
-        <v>1.03961653200542</v>
+        <v>1.079813193107303</v>
       </c>
       <c r="E9">
-        <v>1.031142359420901</v>
+        <v>1.081518570230104</v>
       </c>
       <c r="F9">
-        <v>1.044499694973301</v>
+        <v>1.09151763081623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059181699742034</v>
+        <v>1.056954258919808</v>
       </c>
       <c r="J9">
-        <v>1.043546844324541</v>
+        <v>1.084120721523485</v>
       </c>
       <c r="K9">
-        <v>1.052097970705622</v>
+        <v>1.082839172301233</v>
       </c>
       <c r="L9">
-        <v>1.043749601093432</v>
+        <v>1.084539476343338</v>
       </c>
       <c r="M9">
-        <v>1.056909816471108</v>
+        <v>1.094509139106293</v>
       </c>
       <c r="N9">
-        <v>1.045028800539978</v>
+        <v>1.085660297298433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002600354193312</v>
+        <v>1.075904395831092</v>
       </c>
       <c r="D10">
-        <v>1.026831237236575</v>
+        <v>1.07767900767124</v>
       </c>
       <c r="E10">
-        <v>1.017233743968993</v>
+        <v>1.079162871164242</v>
       </c>
       <c r="F10">
-        <v>1.030732660879967</v>
+        <v>1.089176630618242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05303963208936</v>
+        <v>1.056137157497866</v>
       </c>
       <c r="J10">
-        <v>1.030711180196044</v>
+        <v>1.081972989106421</v>
       </c>
       <c r="K10">
-        <v>1.040732374530158</v>
+        <v>1.08098201565619</v>
       </c>
       <c r="L10">
-        <v>1.031298656692682</v>
+        <v>1.082461025342585</v>
       </c>
       <c r="M10">
-        <v>1.044568346160141</v>
+        <v>1.092442407767931</v>
       </c>
       <c r="N10">
-        <v>1.032174908296147</v>
+        <v>1.083509514854989</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9952604579789923</v>
+        <v>1.074744116751408</v>
       </c>
       <c r="D11">
-        <v>1.020988108708836</v>
+        <v>1.076751746259069</v>
       </c>
       <c r="E11">
-        <v>1.010874584464562</v>
+        <v>1.078139375547861</v>
       </c>
       <c r="F11">
-        <v>1.024443441504772</v>
+        <v>1.088159882689998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050211322839321</v>
+        <v>1.055779993214888</v>
       </c>
       <c r="J11">
-        <v>1.024831745367875</v>
+        <v>1.081039156644373</v>
       </c>
       <c r="K11">
-        <v>1.035524784726825</v>
+        <v>1.080174071710369</v>
       </c>
       <c r="L11">
-        <v>1.025594295150175</v>
+        <v>1.081556983143011</v>
       </c>
       <c r="M11">
-        <v>1.038918657305419</v>
+        <v>1.091543813306838</v>
       </c>
       <c r="N11">
-        <v>1.026287123996142</v>
+        <v>1.082574356243732</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9924673017544361</v>
+        <v>1.074312598025476</v>
       </c>
       <c r="D12">
-        <v>1.018766216052274</v>
+        <v>1.076406835880647</v>
       </c>
       <c r="E12">
-        <v>1.008455989101356</v>
+        <v>1.077758669888696</v>
       </c>
       <c r="F12">
-        <v>1.022052289802643</v>
+        <v>1.087781741742255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049132643208327</v>
+        <v>1.055646817048754</v>
       </c>
       <c r="J12">
-        <v>1.022593916016864</v>
+        <v>1.080691698337805</v>
       </c>
       <c r="K12">
-        <v>1.033542505098245</v>
+        <v>1.079873385991208</v>
       </c>
       <c r="L12">
-        <v>1.023422959229505</v>
+        <v>1.081220559007932</v>
       </c>
       <c r="M12">
-        <v>1.036768856347986</v>
+        <v>1.091209469450847</v>
       </c>
       <c r="N12">
-        <v>1.024046116670769</v>
+        <v>1.082226404506515</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9930695951250004</v>
+        <v>1.074405184924378</v>
       </c>
       <c r="D13">
-        <v>1.019245246052986</v>
+        <v>1.076480842428022</v>
       </c>
       <c r="E13">
-        <v>1.008977450259683</v>
+        <v>1.077840356921591</v>
       </c>
       <c r="F13">
-        <v>1.022567794890479</v>
+        <v>1.087862875984174</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049365345702845</v>
+        <v>1.055675406931878</v>
       </c>
       <c r="J13">
-        <v>1.023076480362518</v>
+        <v>1.080766256292616</v>
       </c>
       <c r="K13">
-        <v>1.033969969326181</v>
+        <v>1.079937910494474</v>
       </c>
       <c r="L13">
-        <v>1.023891190873192</v>
+        <v>1.081292751507579</v>
       </c>
       <c r="M13">
-        <v>1.037232410707785</v>
+        <v>1.091281213144393</v>
       </c>
       <c r="N13">
-        <v>1.024529366313145</v>
+        <v>1.082301068342174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9950309834818397</v>
+        <v>1.074708458375615</v>
       </c>
       <c r="D14">
-        <v>1.020805531159018</v>
+        <v>1.076723245805315</v>
       </c>
       <c r="E14">
-        <v>1.010675853615523</v>
+        <v>1.078107917268357</v>
       </c>
       <c r="F14">
-        <v>1.024246948197388</v>
+        <v>1.088128635216106</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050122750154433</v>
+        <v>1.055768995256385</v>
       </c>
       <c r="J14">
-        <v>1.02464790225081</v>
+        <v>1.081010447770903</v>
       </c>
       <c r="K14">
-        <v>1.035361938653674</v>
+        <v>1.080149228818107</v>
       </c>
       <c r="L14">
-        <v>1.025415917331762</v>
+        <v>1.081529186994383</v>
       </c>
       <c r="M14">
-        <v>1.038742033674499</v>
+        <v>1.091516187953057</v>
       </c>
       <c r="N14">
-        <v>1.026103019800763</v>
+        <v>1.08254560660037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9962303722868928</v>
+        <v>1.074895243200795</v>
       </c>
       <c r="D15">
-        <v>1.021759874667686</v>
+        <v>1.07687253401262</v>
       </c>
       <c r="E15">
-        <v>1.011714611470614</v>
+        <v>1.078272698882574</v>
       </c>
       <c r="F15">
-        <v>1.025274045092933</v>
+        <v>1.088292314855377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050585595186842</v>
+        <v>1.055826590437885</v>
       </c>
       <c r="J15">
-        <v>1.025608773669773</v>
+        <v>1.081160823451746</v>
       </c>
       <c r="K15">
-        <v>1.036213060849988</v>
+        <v>1.080279351908304</v>
       </c>
       <c r="L15">
-        <v>1.026348218306378</v>
+        <v>1.081674779815378</v>
       </c>
       <c r="M15">
-        <v>1.039665195938191</v>
+        <v>1.091660888342501</v>
       </c>
       <c r="N15">
-        <v>1.027065255767355</v>
+        <v>1.082696195831927</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003078535235782</v>
+        <v>1.075981324965856</v>
       </c>
       <c r="D16">
-        <v>1.027212119853272</v>
+        <v>1.07774047969942</v>
       </c>
       <c r="E16">
-        <v>1.017648202815932</v>
+        <v>1.0792307230887</v>
       </c>
       <c r="F16">
-        <v>1.031142673575151</v>
+        <v>1.089244042856405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053223556449129</v>
+        <v>1.056160790178145</v>
       </c>
       <c r="J16">
-        <v>1.031094144774594</v>
+        <v>1.082034882274292</v>
       </c>
       <c r="K16">
-        <v>1.041071551144656</v>
+        <v>1.081035555595466</v>
       </c>
       <c r="L16">
-        <v>1.031670196343699</v>
+        <v>1.082520937037038</v>
       </c>
       <c r="M16">
-        <v>1.044936421509578</v>
+        <v>1.092501965833303</v>
       </c>
       <c r="N16">
-        <v>1.032558416728326</v>
+        <v>1.083571495918257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007263306375897</v>
+        <v>1.07666165132398</v>
       </c>
       <c r="D17">
-        <v>1.030546454006331</v>
+        <v>1.078284068863473</v>
       </c>
       <c r="E17">
-        <v>1.021276164896634</v>
+        <v>1.079830729804648</v>
       </c>
       <c r="F17">
-        <v>1.034732307050507</v>
+        <v>1.089840203214262</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054831286392111</v>
+        <v>1.056369522990963</v>
       </c>
       <c r="J17">
-        <v>1.034445199699602</v>
+        <v>1.082582116414154</v>
       </c>
       <c r="K17">
-        <v>1.044039283644243</v>
+        <v>1.081508881658501</v>
       </c>
       <c r="L17">
-        <v>1.034921153829582</v>
+        <v>1.083050613375337</v>
       </c>
       <c r="M17">
-        <v>1.048157577659883</v>
+        <v>1.093028556159377</v>
       </c>
       <c r="N17">
-        <v>1.035914230535699</v>
+        <v>1.084119507193366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009666491569098</v>
+        <v>1.077058139083923</v>
       </c>
       <c r="D18">
-        <v>1.032462098764932</v>
+        <v>1.078600832572594</v>
       </c>
       <c r="E18">
-        <v>1.023360262999491</v>
+        <v>1.080180370429751</v>
       </c>
       <c r="F18">
-        <v>1.036794869054809</v>
+        <v>1.090187637223066</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05575297507231</v>
+        <v>1.056490950077549</v>
       </c>
       <c r="J18">
-        <v>1.036369219666829</v>
+        <v>1.082900938224487</v>
       </c>
       <c r="K18">
-        <v>1.045743071018791</v>
+        <v>1.08178460050293</v>
       </c>
       <c r="L18">
-        <v>1.036787593143505</v>
+        <v>1.083359173836668</v>
       </c>
       <c r="M18">
-        <v>1.050007325514265</v>
+        <v>1.093335352548287</v>
       </c>
       <c r="N18">
-        <v>1.037840982831967</v>
+        <v>1.084438781767239</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010479716935412</v>
+        <v>1.077193274805965</v>
       </c>
       <c r="D19">
-        <v>1.03311047746582</v>
+        <v>1.078708789828107</v>
       </c>
       <c r="E19">
-        <v>1.024065618393551</v>
+        <v>1.080299532751196</v>
       </c>
       <c r="F19">
-        <v>1.037493015725323</v>
+        <v>1.090306053380536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056064597541384</v>
+        <v>1.056532298917381</v>
       </c>
       <c r="J19">
-        <v>1.037020227889682</v>
+        <v>1.08300958575015</v>
       </c>
       <c r="K19">
-        <v>1.046319535150211</v>
+        <v>1.081878552054102</v>
       </c>
       <c r="L19">
-        <v>1.037419099135902</v>
+        <v>1.083464319080132</v>
       </c>
       <c r="M19">
-        <v>1.050633253661756</v>
+        <v>1.093439902364587</v>
       </c>
       <c r="N19">
-        <v>1.038492915561168</v>
+        <v>1.084547583584851</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006818269898953</v>
+        <v>1.076588693519884</v>
       </c>
       <c r="D20">
-        <v>1.03019176941684</v>
+        <v>1.078225778280041</v>
       </c>
       <c r="E20">
-        <v>1.020890271807162</v>
+        <v>1.079766389319281</v>
       </c>
       <c r="F20">
-        <v>1.034350440291639</v>
+        <v>1.089776271584409</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054660473221963</v>
+        <v>1.056347161409056</v>
       </c>
       <c r="J20">
-        <v>1.034088865445693</v>
+        <v>1.082523441796599</v>
       </c>
       <c r="K20">
-        <v>1.043723724818083</v>
+        <v>1.081458136006217</v>
       </c>
       <c r="L20">
-        <v>1.034575474620226</v>
+        <v>1.082993824630011</v>
       </c>
       <c r="M20">
-        <v>1.04781502346277</v>
+        <v>1.092972094790804</v>
       </c>
       <c r="N20">
-        <v>1.035557390246277</v>
+        <v>1.084060749251125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9944553114228469</v>
+        <v>1.074619166922451</v>
       </c>
       <c r="D21">
-        <v>1.020347535299579</v>
+        <v>1.076651877513402</v>
       </c>
       <c r="E21">
-        <v>1.01017732923153</v>
+        <v>1.078029142261114</v>
       </c>
       <c r="F21">
-        <v>1.023754050537884</v>
+        <v>1.088050388976091</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049900514239691</v>
+        <v>1.055741449935612</v>
       </c>
       <c r="J21">
-        <v>1.024186697000588</v>
+        <v>1.080938555895387</v>
       </c>
       <c r="K21">
-        <v>1.03495340599128</v>
+        <v>1.080087016921226</v>
       </c>
       <c r="L21">
-        <v>1.024968420633863</v>
+        <v>1.081459579926716</v>
       </c>
       <c r="M21">
-        <v>1.03829894949933</v>
+        <v>1.091447009446575</v>
       </c>
       <c r="N21">
-        <v>1.025641159586186</v>
+        <v>1.082473612630144</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.986291245963696</v>
+        <v>1.07337771847966</v>
       </c>
       <c r="D22">
-        <v>1.013856769553281</v>
+        <v>1.075659496295581</v>
       </c>
       <c r="E22">
-        <v>1.003110931050426</v>
+        <v>1.07693377073576</v>
       </c>
       <c r="F22">
-        <v>1.016769515593579</v>
+        <v>1.086962500540485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046743310078358</v>
+        <v>1.055357664784211</v>
       </c>
       <c r="J22">
-        <v>1.017645148904324</v>
+        <v>1.079938647357865</v>
       </c>
       <c r="K22">
-        <v>1.029158629972729</v>
+        <v>1.07922158236214</v>
       </c>
       <c r="L22">
-        <v>1.018621010678117</v>
+        <v>1.080491330745653</v>
       </c>
       <c r="M22">
-        <v>1.032015927712164</v>
+        <v>1.090484847784768</v>
       </c>
       <c r="N22">
-        <v>1.019090321741299</v>
+        <v>1.081472284107807</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9906589822906655</v>
+        <v>1.074036135736874</v>
       </c>
       <c r="D23">
-        <v>1.017328252145359</v>
+        <v>1.076185846396259</v>
       </c>
       <c r="E23">
-        <v>1.006890577517784</v>
+        <v>1.077514745896876</v>
       </c>
       <c r="F23">
-        <v>1.02050488692122</v>
+        <v>1.087539476491917</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048433642908205</v>
+        <v>1.055561398078669</v>
       </c>
       <c r="J23">
-        <v>1.021145018725652</v>
+        <v>1.080469047058945</v>
       </c>
       <c r="K23">
-        <v>1.032259026286756</v>
+        <v>1.079680687568487</v>
       </c>
       <c r="L23">
-        <v>1.022017077483675</v>
+        <v>1.081004964307421</v>
       </c>
       <c r="M23">
-        <v>1.035377128290544</v>
+        <v>1.090995222848946</v>
       </c>
       <c r="N23">
-        <v>1.022595161779214</v>
+        <v>1.082003437037301</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007019478765851</v>
+        <v>1.076621661046423</v>
       </c>
       <c r="D24">
-        <v>1.030352126006567</v>
+        <v>1.078252118220781</v>
       </c>
       <c r="E24">
-        <v>1.021064738831085</v>
+        <v>1.079795463044438</v>
       </c>
       <c r="F24">
-        <v>1.034523085467387</v>
+        <v>1.089805160451384</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054737705807631</v>
+        <v>1.056357266644129</v>
       </c>
       <c r="J24">
-        <v>1.03424997168525</v>
+        <v>1.082549955475729</v>
       </c>
       <c r="K24">
-        <v>1.043866396086542</v>
+        <v>1.081481066907608</v>
       </c>
       <c r="L24">
-        <v>1.034731763831423</v>
+        <v>1.083019486227006</v>
       </c>
       <c r="M24">
-        <v>1.047969898489552</v>
+        <v>1.092997608349302</v>
       </c>
       <c r="N24">
-        <v>1.035718725275173</v>
+        <v>1.08408730058272</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024541435358918</v>
+        <v>1.079608929305719</v>
       </c>
       <c r="D25">
-        <v>1.044331731594554</v>
+        <v>1.080638079538764</v>
       </c>
       <c r="E25">
-        <v>1.036270058727425</v>
+        <v>1.082429087022794</v>
       </c>
       <c r="F25">
-        <v>1.049579233570228</v>
+        <v>1.092422783994747</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061429000942572</v>
+        <v>1.057268167207224</v>
       </c>
       <c r="J25">
-        <v>1.048270197779982</v>
+        <v>1.084950240377431</v>
       </c>
       <c r="K25">
-        <v>1.056278736761808</v>
+        <v>1.083556056581037</v>
       </c>
       <c r="L25">
-        <v>1.048330260926013</v>
+        <v>1.085341941167817</v>
       </c>
       <c r="M25">
-        <v>1.061453733852089</v>
+        <v>1.095307387289264</v>
       </c>
       <c r="N25">
-        <v>1.049758861699102</v>
+        <v>1.0864909941643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_173/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_173/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081981583213166</v>
+        <v>1.037548903237224</v>
       </c>
       <c r="D2">
-        <v>1.082531993875297</v>
+        <v>1.054726135261719</v>
       </c>
       <c r="E2">
-        <v>1.084519647350569</v>
+        <v>1.047570993377843</v>
       </c>
       <c r="F2">
-        <v>1.094501719293237</v>
+        <v>1.060781971657988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057984687742426</v>
+        <v>1.06634434156163</v>
       </c>
       <c r="J2">
-        <v>1.086853476581865</v>
+        <v>1.058661736574308</v>
       </c>
       <c r="K2">
-        <v>1.085199966538849</v>
+        <v>1.065472276250205</v>
       </c>
       <c r="L2">
-        <v>1.087182456347876</v>
+        <v>1.058405105031436</v>
       </c>
       <c r="M2">
-        <v>1.097138901975255</v>
+        <v>1.071454808592451</v>
       </c>
       <c r="N2">
-        <v>1.088396933182447</v>
+        <v>1.060165157670442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083698833586853</v>
+        <v>1.046516169288719</v>
       </c>
       <c r="D3">
-        <v>1.083902060528331</v>
+        <v>1.061898262993605</v>
       </c>
       <c r="E3">
-        <v>1.086032015474934</v>
+        <v>1.05536680320678</v>
       </c>
       <c r="F3">
-        <v>1.09600629205567</v>
+        <v>1.068516631466985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058499236461373</v>
+        <v>1.069701323311725</v>
       </c>
       <c r="J3">
-        <v>1.088229113723273</v>
+        <v>1.065814358836914</v>
       </c>
       <c r="K3">
-        <v>1.086387350657828</v>
+        <v>1.071795972554134</v>
       </c>
       <c r="L3">
-        <v>1.088512176327696</v>
+        <v>1.065337074133999</v>
       </c>
       <c r="M3">
-        <v>1.098462717987029</v>
+        <v>1.078341924602286</v>
       </c>
       <c r="N3">
-        <v>1.089774523886384</v>
+        <v>1.067327937477077</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.084807553590431</v>
+        <v>1.052120951667382</v>
       </c>
       <c r="D4">
-        <v>1.084786300694272</v>
+        <v>1.066383019305253</v>
       </c>
       <c r="E4">
-        <v>1.087008123024208</v>
+        <v>1.060240987958854</v>
       </c>
       <c r="F4">
-        <v>1.096977649583864</v>
+        <v>1.073355424827246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058829573980172</v>
+        <v>1.071784430987442</v>
       </c>
       <c r="J4">
-        <v>1.089116411017484</v>
+        <v>1.070279246996234</v>
       </c>
       <c r="K4">
-        <v>1.087152843556756</v>
+        <v>1.075741211043789</v>
       </c>
       <c r="L4">
-        <v>1.089369587268702</v>
+        <v>1.069662911291518</v>
       </c>
       <c r="M4">
-        <v>1.099316596634084</v>
+        <v>1.082642345390373</v>
       </c>
       <c r="N4">
-        <v>1.090663081244527</v>
+        <v>1.071799166289714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.085273084585707</v>
+        <v>1.054432952912804</v>
       </c>
       <c r="D5">
-        <v>1.085157497810774</v>
+        <v>1.068233356065821</v>
       </c>
       <c r="E5">
-        <v>1.087417892264753</v>
+        <v>1.062251900097435</v>
       </c>
       <c r="F5">
-        <v>1.097385491655685</v>
+        <v>1.075352390240635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058967827509609</v>
+        <v>1.072640033652617</v>
       </c>
       <c r="J5">
-        <v>1.089488763336931</v>
+        <v>1.072119602411806</v>
       </c>
       <c r="K5">
-        <v>1.08747398963343</v>
+        <v>1.077366816378055</v>
       </c>
       <c r="L5">
-        <v>1.089729333389368</v>
+        <v>1.071445626675175</v>
       </c>
       <c r="M5">
-        <v>1.099674926118227</v>
+        <v>1.084415183465619</v>
       </c>
       <c r="N5">
-        <v>1.091035962346978</v>
+        <v>1.073642135221069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.085351215953054</v>
+        <v>1.054818636811358</v>
       </c>
       <c r="D6">
-        <v>1.08521979219776</v>
+        <v>1.068542043210364</v>
       </c>
       <c r="E6">
-        <v>1.08748666025954</v>
+        <v>1.06258737104248</v>
       </c>
       <c r="F6">
-        <v>1.097453940140581</v>
+        <v>1.075685572264142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058991004635804</v>
+        <v>1.072782544805132</v>
       </c>
       <c r="J6">
-        <v>1.08955124409314</v>
+        <v>1.072426520996165</v>
       </c>
       <c r="K6">
-        <v>1.087527872609877</v>
+        <v>1.077637887113736</v>
       </c>
       <c r="L6">
-        <v>1.089789695044728</v>
+        <v>1.071742913121544</v>
       </c>
       <c r="M6">
-        <v>1.099735053904138</v>
+        <v>1.084710857321658</v>
       </c>
       <c r="N6">
-        <v>1.091098531833026</v>
+        <v>1.073949489665021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08481377627938</v>
+        <v>1.052152014783489</v>
       </c>
       <c r="D7">
-        <v>1.084791262746999</v>
+        <v>1.066407878445844</v>
       </c>
       <c r="E7">
-        <v>1.087013600669566</v>
+        <v>1.060268004750764</v>
       </c>
       <c r="F7">
-        <v>1.096983101205163</v>
+        <v>1.073382251685569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058831423762022</v>
+        <v>1.07179594122362</v>
       </c>
       <c r="J7">
-        <v>1.089121389015583</v>
+        <v>1.070303979034266</v>
       </c>
       <c r="K7">
-        <v>1.087157137335391</v>
+        <v>1.075763059365084</v>
       </c>
       <c r="L7">
-        <v>1.089374396987245</v>
+        <v>1.069686870023525</v>
       </c>
       <c r="M7">
-        <v>1.099321387155737</v>
+        <v>1.082666169036763</v>
       </c>
       <c r="N7">
-        <v>1.090668066311954</v>
+        <v>1.071823933450076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.082562452383676</v>
+        <v>1.040622301227959</v>
       </c>
       <c r="D8">
-        <v>1.082995493081082</v>
+        <v>1.057183776114014</v>
       </c>
       <c r="E8">
-        <v>1.085031282717107</v>
+        <v>1.050242492131596</v>
       </c>
       <c r="F8">
-        <v>1.09501065888311</v>
+        <v>1.063431896264902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058159124982624</v>
+        <v>1.067498050258104</v>
       </c>
       <c r="J8">
-        <v>1.087318972309716</v>
+        <v>1.061114353828399</v>
       </c>
       <c r="K8">
-        <v>1.085601838695971</v>
+        <v>1.067641106234134</v>
       </c>
       <c r="L8">
-        <v>1.087632470299056</v>
+        <v>1.060782332056135</v>
       </c>
       <c r="M8">
-        <v>1.097586860665499</v>
+        <v>1.073816095106558</v>
       </c>
       <c r="N8">
-        <v>1.088863089967625</v>
+        <v>1.062621257922354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078575936704114</v>
+        <v>1.018635413223285</v>
       </c>
       <c r="D9">
-        <v>1.079813193107303</v>
+        <v>1.039616532005419</v>
       </c>
       <c r="E9">
-        <v>1.081518570230104</v>
+        <v>1.031142359420901</v>
       </c>
       <c r="F9">
-        <v>1.09151763081623</v>
+        <v>1.0444996949733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056954258919808</v>
+        <v>1.059181699742033</v>
       </c>
       <c r="J9">
-        <v>1.084120721523485</v>
+        <v>1.04354684432454</v>
       </c>
       <c r="K9">
-        <v>1.082839172301233</v>
+        <v>1.052097970705621</v>
       </c>
       <c r="L9">
-        <v>1.084539476343338</v>
+        <v>1.043749601093431</v>
       </c>
       <c r="M9">
-        <v>1.094509139106293</v>
+        <v>1.056909816471106</v>
       </c>
       <c r="N9">
-        <v>1.085660297298433</v>
+        <v>1.045028800539977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075904395831092</v>
+        <v>1.002600354193311</v>
       </c>
       <c r="D10">
-        <v>1.07767900767124</v>
+        <v>1.026831237236574</v>
       </c>
       <c r="E10">
-        <v>1.079162871164242</v>
+        <v>1.017233743968992</v>
       </c>
       <c r="F10">
-        <v>1.089176630618242</v>
+        <v>1.030732660879966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056137157497866</v>
+        <v>1.05303963208936</v>
       </c>
       <c r="J10">
-        <v>1.081972989106421</v>
+        <v>1.030711180196043</v>
       </c>
       <c r="K10">
-        <v>1.08098201565619</v>
+        <v>1.040732374530157</v>
       </c>
       <c r="L10">
-        <v>1.082461025342585</v>
+        <v>1.031298656692681</v>
       </c>
       <c r="M10">
-        <v>1.092442407767931</v>
+        <v>1.04456834616014</v>
       </c>
       <c r="N10">
-        <v>1.083509514854989</v>
+        <v>1.032174908296146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.074744116751408</v>
+        <v>0.9952604579789905</v>
       </c>
       <c r="D11">
-        <v>1.076751746259069</v>
+        <v>1.020988108708834</v>
       </c>
       <c r="E11">
-        <v>1.078139375547861</v>
+        <v>1.01087458446456</v>
       </c>
       <c r="F11">
-        <v>1.088159882689998</v>
+        <v>1.02444344150477</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055779993214888</v>
+        <v>1.050211322839321</v>
       </c>
       <c r="J11">
-        <v>1.081039156644373</v>
+        <v>1.024831745367873</v>
       </c>
       <c r="K11">
-        <v>1.080174071710369</v>
+        <v>1.035524784726823</v>
       </c>
       <c r="L11">
-        <v>1.081556983143011</v>
+        <v>1.025594295150173</v>
       </c>
       <c r="M11">
-        <v>1.091543813306838</v>
+        <v>1.038918657305417</v>
       </c>
       <c r="N11">
-        <v>1.082574356243732</v>
+        <v>1.02628712399614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.074312598025476</v>
+        <v>0.9924673017544349</v>
       </c>
       <c r="D12">
-        <v>1.076406835880647</v>
+        <v>1.018766216052273</v>
       </c>
       <c r="E12">
-        <v>1.077758669888696</v>
+        <v>1.008455989101355</v>
       </c>
       <c r="F12">
-        <v>1.087781741742255</v>
+        <v>1.022052289802642</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055646817048754</v>
+        <v>1.049132643208327</v>
       </c>
       <c r="J12">
-        <v>1.080691698337805</v>
+        <v>1.022593916016862</v>
       </c>
       <c r="K12">
-        <v>1.079873385991208</v>
+        <v>1.033542505098244</v>
       </c>
       <c r="L12">
-        <v>1.081220559007932</v>
+        <v>1.023422959229503</v>
       </c>
       <c r="M12">
-        <v>1.091209469450847</v>
+        <v>1.036768856347985</v>
       </c>
       <c r="N12">
-        <v>1.082226404506515</v>
+        <v>1.024046116670768</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.074405184924378</v>
+        <v>0.9930695951250001</v>
       </c>
       <c r="D13">
-        <v>1.076480842428022</v>
+        <v>1.019245246052986</v>
       </c>
       <c r="E13">
-        <v>1.077840356921591</v>
+        <v>1.008977450259683</v>
       </c>
       <c r="F13">
-        <v>1.087862875984174</v>
+        <v>1.022567794890479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055675406931878</v>
+        <v>1.049365345702845</v>
       </c>
       <c r="J13">
-        <v>1.080766256292616</v>
+        <v>1.023076480362518</v>
       </c>
       <c r="K13">
-        <v>1.079937910494474</v>
+        <v>1.033969969326181</v>
       </c>
       <c r="L13">
-        <v>1.081292751507579</v>
+        <v>1.023891190873192</v>
       </c>
       <c r="M13">
-        <v>1.091281213144393</v>
+        <v>1.037232410707786</v>
       </c>
       <c r="N13">
-        <v>1.082301068342174</v>
+        <v>1.024529366313145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074708458375615</v>
+        <v>0.9950309834818418</v>
       </c>
       <c r="D14">
-        <v>1.076723245805315</v>
+        <v>1.020805531159021</v>
       </c>
       <c r="E14">
-        <v>1.078107917268357</v>
+        <v>1.010675853615526</v>
       </c>
       <c r="F14">
-        <v>1.088128635216106</v>
+        <v>1.02424694819739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055768995256385</v>
+        <v>1.050122750154434</v>
       </c>
       <c r="J14">
-        <v>1.081010447770903</v>
+        <v>1.024647902250812</v>
       </c>
       <c r="K14">
-        <v>1.080149228818107</v>
+        <v>1.035361938653676</v>
       </c>
       <c r="L14">
-        <v>1.081529186994383</v>
+        <v>1.025415917331764</v>
       </c>
       <c r="M14">
-        <v>1.091516187953057</v>
+        <v>1.038742033674501</v>
       </c>
       <c r="N14">
-        <v>1.08254560660037</v>
+        <v>1.026103019800765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074895243200795</v>
+        <v>0.9962303722868913</v>
       </c>
       <c r="D15">
-        <v>1.07687253401262</v>
+        <v>1.021759874667685</v>
       </c>
       <c r="E15">
-        <v>1.078272698882574</v>
+        <v>1.011714611470613</v>
       </c>
       <c r="F15">
-        <v>1.088292314855377</v>
+        <v>1.025274045092932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055826590437885</v>
+        <v>1.050585595186841</v>
       </c>
       <c r="J15">
-        <v>1.081160823451746</v>
+        <v>1.025608773669772</v>
       </c>
       <c r="K15">
-        <v>1.080279351908304</v>
+        <v>1.036213060849987</v>
       </c>
       <c r="L15">
-        <v>1.081674779815378</v>
+        <v>1.026348218306377</v>
       </c>
       <c r="M15">
-        <v>1.091660888342501</v>
+        <v>1.03966519593819</v>
       </c>
       <c r="N15">
-        <v>1.082696195831927</v>
+        <v>1.027065255767353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075981324965856</v>
+        <v>1.003078535235783</v>
       </c>
       <c r="D16">
-        <v>1.07774047969942</v>
+        <v>1.027212119853273</v>
       </c>
       <c r="E16">
-        <v>1.0792307230887</v>
+        <v>1.017648202815933</v>
       </c>
       <c r="F16">
-        <v>1.089244042856405</v>
+        <v>1.031142673575152</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056160790178145</v>
+        <v>1.053223556449129</v>
       </c>
       <c r="J16">
-        <v>1.082034882274292</v>
+        <v>1.031094144774595</v>
       </c>
       <c r="K16">
-        <v>1.081035555595466</v>
+        <v>1.041071551144657</v>
       </c>
       <c r="L16">
-        <v>1.082520937037038</v>
+        <v>1.0316701963437</v>
       </c>
       <c r="M16">
-        <v>1.092501965833303</v>
+        <v>1.044936421509578</v>
       </c>
       <c r="N16">
-        <v>1.083571495918257</v>
+        <v>1.032558416728327</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07666165132398</v>
+        <v>1.007263306375897</v>
       </c>
       <c r="D17">
-        <v>1.078284068863473</v>
+        <v>1.030546454006332</v>
       </c>
       <c r="E17">
-        <v>1.079830729804648</v>
+        <v>1.021276164896634</v>
       </c>
       <c r="F17">
-        <v>1.089840203214262</v>
+        <v>1.034732307050507</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056369522990963</v>
+        <v>1.054831286392112</v>
       </c>
       <c r="J17">
-        <v>1.082582116414154</v>
+        <v>1.034445199699602</v>
       </c>
       <c r="K17">
-        <v>1.081508881658501</v>
+        <v>1.044039283644244</v>
       </c>
       <c r="L17">
-        <v>1.083050613375337</v>
+        <v>1.034921153829582</v>
       </c>
       <c r="M17">
-        <v>1.093028556159377</v>
+        <v>1.048157577659884</v>
       </c>
       <c r="N17">
-        <v>1.084119507193366</v>
+        <v>1.035914230535699</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077058139083923</v>
+        <v>1.009666491569099</v>
       </c>
       <c r="D18">
-        <v>1.078600832572594</v>
+        <v>1.032462098764932</v>
       </c>
       <c r="E18">
-        <v>1.080180370429751</v>
+        <v>1.023360262999491</v>
       </c>
       <c r="F18">
-        <v>1.090187637223066</v>
+        <v>1.036794869054809</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056490950077549</v>
+        <v>1.05575297507231</v>
       </c>
       <c r="J18">
-        <v>1.082900938224487</v>
+        <v>1.03636921966683</v>
       </c>
       <c r="K18">
-        <v>1.08178460050293</v>
+        <v>1.045743071018792</v>
       </c>
       <c r="L18">
-        <v>1.083359173836668</v>
+        <v>1.036787593143505</v>
       </c>
       <c r="M18">
-        <v>1.093335352548287</v>
+        <v>1.050007325514265</v>
       </c>
       <c r="N18">
-        <v>1.084438781767239</v>
+        <v>1.037840982831967</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077193274805965</v>
+        <v>1.010479716935411</v>
       </c>
       <c r="D19">
-        <v>1.078708789828107</v>
+        <v>1.033110477465819</v>
       </c>
       <c r="E19">
-        <v>1.080299532751196</v>
+        <v>1.02406561839355</v>
       </c>
       <c r="F19">
-        <v>1.090306053380536</v>
+        <v>1.037493015725322</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056532298917381</v>
+        <v>1.056064597541383</v>
       </c>
       <c r="J19">
-        <v>1.08300958575015</v>
+        <v>1.037020227889681</v>
       </c>
       <c r="K19">
-        <v>1.081878552054102</v>
+        <v>1.04631953515021</v>
       </c>
       <c r="L19">
-        <v>1.083464319080132</v>
+        <v>1.037419099135901</v>
       </c>
       <c r="M19">
-        <v>1.093439902364587</v>
+        <v>1.050633253661754</v>
       </c>
       <c r="N19">
-        <v>1.084547583584851</v>
+        <v>1.038492915561167</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076588693519884</v>
+        <v>1.00681826989895</v>
       </c>
       <c r="D20">
-        <v>1.078225778280041</v>
+        <v>1.030191769416837</v>
       </c>
       <c r="E20">
-        <v>1.079766389319281</v>
+        <v>1.020890271807159</v>
       </c>
       <c r="F20">
-        <v>1.089776271584409</v>
+        <v>1.034350440291635</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056347161409056</v>
+        <v>1.054660473221962</v>
       </c>
       <c r="J20">
-        <v>1.082523441796599</v>
+        <v>1.03408886544569</v>
       </c>
       <c r="K20">
-        <v>1.081458136006217</v>
+        <v>1.04372372481808</v>
       </c>
       <c r="L20">
-        <v>1.082993824630011</v>
+        <v>1.034575474620223</v>
       </c>
       <c r="M20">
-        <v>1.092972094790804</v>
+        <v>1.047815023462767</v>
       </c>
       <c r="N20">
-        <v>1.084060749251125</v>
+        <v>1.035557390246273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.074619166922451</v>
+        <v>0.9944553114228449</v>
       </c>
       <c r="D21">
-        <v>1.076651877513402</v>
+        <v>1.020347535299577</v>
       </c>
       <c r="E21">
-        <v>1.078029142261114</v>
+        <v>1.010177329231527</v>
       </c>
       <c r="F21">
-        <v>1.088050388976091</v>
+        <v>1.023754050537882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055741449935612</v>
+        <v>1.04990051423969</v>
       </c>
       <c r="J21">
-        <v>1.080938555895387</v>
+        <v>1.024186697000587</v>
       </c>
       <c r="K21">
-        <v>1.080087016921226</v>
+        <v>1.034953405991278</v>
       </c>
       <c r="L21">
-        <v>1.081459579926716</v>
+        <v>1.024968420633861</v>
       </c>
       <c r="M21">
-        <v>1.091447009446575</v>
+        <v>1.038298949499329</v>
       </c>
       <c r="N21">
-        <v>1.082473612630144</v>
+        <v>1.025641159586183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.07337771847966</v>
+        <v>0.9862912459636953</v>
       </c>
       <c r="D22">
-        <v>1.075659496295581</v>
+        <v>1.013856769553281</v>
       </c>
       <c r="E22">
-        <v>1.07693377073576</v>
+        <v>1.003110931050425</v>
       </c>
       <c r="F22">
-        <v>1.086962500540485</v>
+        <v>1.016769515593579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055357664784211</v>
+        <v>1.046743310078358</v>
       </c>
       <c r="J22">
-        <v>1.079938647357865</v>
+        <v>1.017645148904324</v>
       </c>
       <c r="K22">
-        <v>1.07922158236214</v>
+        <v>1.029158629972728</v>
       </c>
       <c r="L22">
-        <v>1.080491330745653</v>
+        <v>1.018621010678116</v>
       </c>
       <c r="M22">
-        <v>1.090484847784768</v>
+        <v>1.032015927712163</v>
       </c>
       <c r="N22">
-        <v>1.081472284107807</v>
+        <v>1.019090321741298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.074036135736874</v>
+        <v>0.9906589822906684</v>
       </c>
       <c r="D23">
-        <v>1.076185846396259</v>
+        <v>1.017328252145362</v>
       </c>
       <c r="E23">
-        <v>1.077514745896876</v>
+        <v>1.006890577517787</v>
       </c>
       <c r="F23">
-        <v>1.087539476491917</v>
+        <v>1.020504886921223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055561398078669</v>
+        <v>1.048433642908206</v>
       </c>
       <c r="J23">
-        <v>1.080469047058945</v>
+        <v>1.021145018725655</v>
       </c>
       <c r="K23">
-        <v>1.079680687568487</v>
+        <v>1.032259026286759</v>
       </c>
       <c r="L23">
-        <v>1.081004964307421</v>
+        <v>1.022017077483678</v>
       </c>
       <c r="M23">
-        <v>1.090995222848946</v>
+        <v>1.035377128290546</v>
       </c>
       <c r="N23">
-        <v>1.082003437037301</v>
+        <v>1.022595161779216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076621661046423</v>
+        <v>1.007019478765852</v>
       </c>
       <c r="D24">
-        <v>1.078252118220781</v>
+        <v>1.030352126006568</v>
       </c>
       <c r="E24">
-        <v>1.079795463044438</v>
+        <v>1.021064738831086</v>
       </c>
       <c r="F24">
-        <v>1.089805160451384</v>
+        <v>1.034523085467387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056357266644129</v>
+        <v>1.054737705807632</v>
       </c>
       <c r="J24">
-        <v>1.082549955475729</v>
+        <v>1.034249971685251</v>
       </c>
       <c r="K24">
-        <v>1.081481066907608</v>
+        <v>1.043866396086542</v>
       </c>
       <c r="L24">
-        <v>1.083019486227006</v>
+        <v>1.034731763831424</v>
       </c>
       <c r="M24">
-        <v>1.092997608349302</v>
+        <v>1.047969898489552</v>
       </c>
       <c r="N24">
-        <v>1.08408730058272</v>
+        <v>1.035718725275174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079608929305719</v>
+        <v>1.02454143535892</v>
       </c>
       <c r="D25">
-        <v>1.080638079538764</v>
+        <v>1.044331731594556</v>
       </c>
       <c r="E25">
-        <v>1.082429087022794</v>
+        <v>1.036270058727427</v>
       </c>
       <c r="F25">
-        <v>1.092422783994747</v>
+        <v>1.049579233570229</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057268167207224</v>
+        <v>1.061429000942573</v>
       </c>
       <c r="J25">
-        <v>1.084950240377431</v>
+        <v>1.048270197779984</v>
       </c>
       <c r="K25">
-        <v>1.083556056581037</v>
+        <v>1.05627873676181</v>
       </c>
       <c r="L25">
-        <v>1.085341941167817</v>
+        <v>1.048330260926014</v>
       </c>
       <c r="M25">
-        <v>1.095307387289264</v>
+        <v>1.061453733852091</v>
       </c>
       <c r="N25">
-        <v>1.0864909941643</v>
+        <v>1.049758861699104</v>
       </c>
     </row>
   </sheetData>
